--- a/spliced/falling/2023-03-25_17-58-29/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-58-29/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0041233403608202</v>
+        <v>0.0007635815418325</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0007635815418325</v>
+        <v>0.01328631862998</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.066737025976181</v>
+        <v>0.0305432621389627</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0314595587551593</v>
+        <v>0.0154243474826216</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2884811162948608</v>
+        <v>-0.0059559359215199</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06536258012056349</v>
+        <v>0.0029016099870204</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.1331686228513717</v>
+        <v>0.0140499006956815</v>
       </c>
       <c r="B4" t="n">
-        <v>0.493731826543808</v>
+        <v>0.0103847095742821</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1162171140313148</v>
+        <v>0.0612392425537109</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.09651670604944219</v>
+        <v>0.0195476878434419</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7289149761199951</v>
+        <v>0.0311541277915239</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0355829000473022</v>
+        <v>0.0459676086902618</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.2052507251501083</v>
+        <v>0.0041233403608202</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5688682794570923</v>
+        <v>-0.0007635815418325</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1585195362567901</v>
+        <v>-0.066737025976181</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.18539759516716</v>
+        <v>-0.0314595587551593</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.1214094683527946</v>
+        <v>0.2884811162948608</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.6217080950737</v>
+        <v>0.06536258012056349</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.8633053302764893</v>
+        <v>-0.1331686228513717</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.9155342578887939</v>
+        <v>0.493731826543808</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0097738439217209</v>
+        <v>-0.1162171140313148</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-2.978273391723633</v>
+        <v>-0.09651670604944219</v>
       </c>
       <c r="B9" t="n">
-        <v>1.564731359481812</v>
+        <v>0.7289149761199951</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.266449213027954</v>
+        <v>-0.0355829000473022</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.346346974372864</v>
+        <v>-0.2052507251501083</v>
       </c>
       <c r="B10" t="n">
-        <v>1.957823157310486</v>
+        <v>0.5688682794570923</v>
       </c>
       <c r="C10" t="n">
-        <v>1.074512004852295</v>
+        <v>0.1585195362567901</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.2492330223321914</v>
+        <v>-0.18539759516716</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9819658994674684</v>
+        <v>-0.1214094683527946</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.9859365224838256</v>
+        <v>-0.6217080950737</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.0514653958380222</v>
+        <v>0.8633053302764893</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.3197879493236542</v>
+        <v>-0.9155342578887939</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1852448880672454</v>
+        <v>0.0097738439217209</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.1069014146924018</v>
+        <v>-2.978273391723633</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.1577559560537338</v>
+        <v>1.564731359481812</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1151480972766876</v>
+        <v>-3.266449213027954</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.7513642311096191</v>
+        <v>1.346346974372864</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.080926060676575</v>
+        <v>1.957823157310486</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1253800988197326</v>
+        <v>1.074512004852295</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.155312493443489</v>
+        <v>0.2492330223321914</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2770273983478546</v>
+        <v>0.9819658994674684</v>
       </c>
       <c r="C15" t="n">
-        <v>0.052381694316864</v>
+        <v>-0.9859365224838256</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.0971275717020034</v>
+        <v>0.0514653958380222</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.6624833345413208</v>
+        <v>-0.3197879493236542</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3292563557624817</v>
+        <v>0.1852448880672454</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.0768163055181503</v>
+        <v>0.1069014146924018</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.087353728711605</v>
+        <v>-0.1577559560537338</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0009162978967650999</v>
+        <v>0.1151480972766876</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.1663080602884292</v>
+        <v>0.7513642311096191</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.113315500319004</v>
+        <v>-1.080926060676575</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0271835029125213</v>
+        <v>-0.1253800988197326</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.0128281703218817</v>
+        <v>-0.155312493443489</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0352774672210216</v>
+        <v>0.2770273983478546</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0442877300083637</v>
+        <v>0.052381694316864</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.048105638474226</v>
+        <v>-0.0971275717020034</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1994474977254867</v>
+        <v>-0.6624833345413208</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08918632566928859</v>
+        <v>0.3292563557624817</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.0100792767480015</v>
+        <v>-0.0768163055181503</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0337503030896186</v>
+        <v>-0.087353728711605</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.0250454749912023</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.0054977871477603</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0357356183230876</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.0113010071218013</v>
+        <v>0.0009162978967650999</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_17-58-29/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-58-29/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0007635815418325</v>
+        <v>-0.09926560521125791</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01328631862998</v>
+        <v>-0.0462730415165424</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0305432621389627</v>
+        <v>-0.0271835029125213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0154243474826216</v>
+        <v>-0.0335975885391235</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0059559359215199</v>
+        <v>-0.0432187169790267</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0029016099870204</v>
+        <v>0.0745255574584007</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0140499006956815</v>
+        <v>-0.0479529201984405</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0103847095742821</v>
+        <v>0.0383317954838275</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0612392425537109</v>
+        <v>0.0061086523346602</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0195476878434419</v>
+        <v>0.046578474342823</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0311541277915239</v>
+        <v>-0.020616702735424</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0459676086902618</v>
+        <v>0.0142026171088218</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0041233403608202</v>
+        <v>-0.0091629782691597</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0007635815418325</v>
+        <v>-0.0673478916287422</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.066737025976181</v>
+        <v>0.0209221355617046</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.0314595587551593</v>
+        <v>0.0207694191485643</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2884811162948608</v>
+        <v>-0.0343611687421798</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06536258012056349</v>
+        <v>0.0255036242306232</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.1331686228513717</v>
+        <v>0.022754730656743</v>
       </c>
       <c r="B8" t="n">
-        <v>0.493731826543808</v>
+        <v>-0.00534507073462</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1162171140313148</v>
+        <v>0.0320704244077205</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.09651670604944219</v>
+        <v>0.040775254368782</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7289149761199951</v>
+        <v>0.0120645882561802</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0355829000473022</v>
+        <v>0.009010262787342</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.2052507251501083</v>
+        <v>0.0372627787292003</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5688682794570923</v>
+        <v>-0.0259617734700441</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1585195362567901</v>
+        <v>0.0166460778564214</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.18539759516716</v>
+        <v>0.011148290708661</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.1214094683527946</v>
+        <v>-0.0271835029125213</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.6217080950737</v>
+        <v>0.0561996027827262</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.8633053302764893</v>
+        <v>-0.0181732401251792</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.9155342578887939</v>
+        <v>-0.0284052342176437</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0097738439217209</v>
+        <v>-0.011148290708661</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-2.978273391723633</v>
+        <v>0.0007635815418325</v>
       </c>
       <c r="B13" t="n">
-        <v>1.564731359481812</v>
+        <v>0.01328631862998</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.266449213027954</v>
+        <v>0.0305432621389627</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.346346974372864</v>
+        <v>0.0154243474826216</v>
       </c>
       <c r="B14" t="n">
-        <v>1.957823157310486</v>
+        <v>-0.0059559359215199</v>
       </c>
       <c r="C14" t="n">
-        <v>1.074512004852295</v>
+        <v>0.0029016099870204</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.2492330223321914</v>
+        <v>0.0140499006956815</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9819658994674684</v>
+        <v>0.0103847095742821</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.9859365224838256</v>
+        <v>0.0612392425537109</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0514653958380222</v>
+        <v>0.0195476878434419</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.3197879493236542</v>
+        <v>0.0311541277915239</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1852448880672454</v>
+        <v>0.0459676086902618</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1069014146924018</v>
+        <v>0.0041233403608202</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.1577559560537338</v>
+        <v>-0.0007635815418325</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1151480972766876</v>
+        <v>-0.066737025976181</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.7513642311096191</v>
+        <v>-0.0314595587551593</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.080926060676575</v>
+        <v>0.2884811162948608</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1253800988197326</v>
+        <v>0.06536258012056349</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.155312493443489</v>
+        <v>-0.1331686228513717</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2770273983478546</v>
+        <v>0.493731826543808</v>
       </c>
       <c r="C19" t="n">
-        <v>0.052381694316864</v>
+        <v>-0.1162171140313148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.0971275717020034</v>
+        <v>-0.09651670604944219</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.6624833345413208</v>
+        <v>0.7289149761199951</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3292563557624817</v>
+        <v>-0.0355829000473022</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.0768163055181503</v>
+        <v>-0.2052507251501083</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.087353728711605</v>
+        <v>0.5688682794570923</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0009162978967650999</v>
+        <v>0.1585195362567901</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.18539759516716</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.1214094683527946</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.6217080950737</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.8633053302764893</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.9155342578887939</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0097738439217209</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-2.978273391723633</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.564731359481812</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-3.266449213027954</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1.346346974372864</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.957823157310486</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.074512004852295</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.2492330223321914</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9819658994674684</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.9859365224838256</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.0514653958380222</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.3197879493236542</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1852448880672454</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.1069014146924018</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.1577559560537338</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1151480972766876</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.7513642311096191</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-1.080926060676575</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.1253800988197326</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.155312493443489</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.2770273983478546</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.052381694316864</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.0971275717020034</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.6624833345413208</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.3292563557624817</v>
       </c>
     </row>
   </sheetData>
